--- a/MergeWar/Template/MergeWar_ImprotLoca.xlsx
+++ b/MergeWar/Template/MergeWar_ImprotLoca.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="374" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="修改数据版本" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>预派单地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,13 +398,17 @@
   <si>
     <t>不通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场所标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -475,6 +479,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,7 +499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,7 +573,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -601,7 +607,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -777,14 +782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
@@ -797,7 +802,7 @@
     <col min="14" max="14" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -841,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -910,14 +915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
     <col min="2" max="3" width="20.75" style="3" customWidth="1"/>
@@ -1497,7 +1502,7 @@
     <col min="16142" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1538,14 +1543,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1591,7 +1598,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1605,10 +1612,10 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -1624,12 +1631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
